--- a/Masui-IR台本追加.xlsx
+++ b/Masui-IR台本追加.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67225187-3238-3C44-8D5C-D890FC4434C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2440606-FE13-0046-BA96-3D31DA9B8931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="820" windowWidth="27000" windowHeight="16160" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="1180" windowWidth="27000" windowHeight="16160" tabRatio="860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="台本" sheetId="11" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">台本!$A$1:$J$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">台本!$A$1:$J$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -303,7 +303,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>文字数</t>
     <rPh sb="0" eb="3">
@@ -411,15 +411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>冒頭のあいさつ、講師のみ座り</t>
-  </si>
-  <si>
-    <t>1-1●●について</t>
-  </si>
-  <si>
     <t>おわりのあいさつ、講師のみ座り</t>
   </si>
   <si>
@@ -447,15 +438,6 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>ダイホン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヒューマンインタフェースの講義をはじめます。・・・ 
-みなさん、こんにちは・・・講師の増井です。
-今回は情報検索のインタフェースに関して解説します。</t>
-    <rPh sb="43" eb="45">
-      <t>masui</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -847,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -916,9 +898,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -957,13 +936,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>52918</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3778250</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>2098369</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1018,13 +997,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>35198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3771169</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>2137833</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1079,13 +1058,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>25385</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3788833</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2132398</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1403,11 +1382,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -1417,7 +1396,7 @@
     <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="79.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="24" customWidth="1"/>
     <col min="7" max="7" width="6.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.1640625" style="10" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="1" customWidth="1"/>
@@ -1428,30 +1407,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1">
-      <c r="A1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="A1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
       <c r="F1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4">
-        <f>SUM(G3:G17)</f>
-        <v>864</v>
+        <f>SUM(G3:G15)</f>
+        <v>790</v>
       </c>
       <c r="H1" s="7">
-        <f>SUM(H3:H17)</f>
-        <v>3.1031746031746029E-3</v>
+        <f>SUM(H3:H15)</f>
+        <v>1.5674603174603173E-3</v>
       </c>
       <c r="I1" s="19"/>
       <c r="J1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="14" t="s">
@@ -1484,435 +1463,386 @@
       <c r="J2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="16">
         <v>1</v>
       </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="16" t="s">
-        <v>12</v>
-      </c>
+      <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
       <c r="F3" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" ref="G3:G17" si="0">LEN(PHONETIC(D3))</f>
+        <f t="shared" ref="G3:G15" si="0">LEN(PHONETIC(D3))</f>
         <v>0</v>
       </c>
       <c r="H3" s="9">
         <f>F3+($G3/$J3)*60/86400</f>
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
         <f>$H$3</f>
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="18">
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="76" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="16"/>
+    <row r="4" spans="1:12">
+      <c r="A4" s="16">
+        <v>17</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="H4" s="9">
-        <f>($G4/$J4)*60/86400</f>
-        <v>1.5277777777777777E-4</v>
+        <f t="shared" ref="H4:H8" si="1">($G4/$J4)*60/86400</f>
+        <v>0</v>
       </c>
       <c r="I4" s="11">
-        <f>$H$3</f>
-        <v>4.6296296296296293E-4</v>
+        <f t="shared" ref="I4:I12" si="2">I3+H3</f>
+        <v>0</v>
       </c>
       <c r="J4" s="18">
-        <f>$J$3</f>
+        <f t="shared" ref="J4:J8" si="3">$J$3</f>
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" ht="185" customHeight="1">
       <c r="A5" s="16">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B5" s="17"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="H5" s="9">
-        <f>($G5/$J5)*60/86400</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>5.6746031746031747E-4</v>
       </c>
       <c r="I5" s="11">
-        <f>I4+H4</f>
-        <v>6.157407407407407E-4</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J5" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" ht="26" customHeight="1">
       <c r="A6" s="16">
-        <v>17</v>
-      </c>
-      <c r="B6" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="C6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="16"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="9">
-        <f>($G6/$J6)*60/86400</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="11">
-        <f>I5+H5</f>
-        <v>6.157407407407407E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.6746031746031747E-4</v>
       </c>
       <c r="J6" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="185" customHeight="1">
+    <row r="7" spans="1:12" ht="26" customHeight="1">
       <c r="A7" s="16">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="C7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="H7" s="9">
-        <f>($G7/$J7)*60/86400</f>
-        <v>5.6150793650793656E-4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
-        <f>I6+H6</f>
-        <v>6.157407407407407E-4</v>
+        <f t="shared" si="2"/>
+        <v>5.6746031746031747E-4</v>
       </c>
       <c r="J7" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="26" customHeight="1">
+    <row r="8" spans="1:12" ht="185" customHeight="1">
       <c r="A8" s="16">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H8" s="9">
-        <f>($G8/$J8)*60/86400</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>4.4642857142857147E-4</v>
       </c>
       <c r="I8" s="11">
-        <f>I7+H7</f>
-        <v>1.1772486772486774E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.6746031746031747E-4</v>
       </c>
       <c r="J8" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="3"/>
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="26" customHeight="1">
-      <c r="A9" s="16">
-        <v>32</v>
-      </c>
+    <row r="9" spans="1:12" ht="23" customHeight="1">
+      <c r="A9" s="16"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="23">
-        <v>4.6296296296296293E-4</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <v>5.7870370370370378E-4</v>
+      </c>
+      <c r="G9" s="3"/>
       <c r="H9" s="9">
         <f>($G9/$J9)*60/86400</f>
         <v>0</v>
       </c>
       <c r="I9" s="11">
-        <f>I8+H8</f>
-        <v>1.1772486772486774E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.0138888888888888E-3</v>
       </c>
       <c r="J9" s="18">
-        <f>$J$3</f>
+        <f t="shared" ref="J9:J15" si="4">$J$3</f>
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="185" customHeight="1">
+    <row r="10" spans="1:12" ht="26" customHeight="1">
       <c r="A10" s="16">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>26</v>
-      </c>
+      <c r="C10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
         <f>($G10/$J10)*60/86400</f>
-        <v>4.4642857142857147E-4</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
-        <f>I9+H9</f>
-        <v>1.1772486772486774E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.0138888888888888E-3</v>
       </c>
       <c r="J10" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="23" customHeight="1">
-      <c r="A11" s="16"/>
+    <row r="11" spans="1:12" ht="27" customHeight="1">
+      <c r="A11" s="16">
+        <v>37</v>
+      </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="18"/>
+      <c r="F11" s="23">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <f>($G11/$J11)*60/86400</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="2"/>
+        <v>1.0138888888888888E-3</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="4"/>
+        <v>350</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" ht="26" customHeight="1">
+    <row r="12" spans="1:12" ht="177" customHeight="1">
       <c r="A12" s="16">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="H12" s="9">
         <f>($G12/$J12)*60/86400</f>
-        <v>0</v>
+        <v>5.5357142857142855E-4</v>
       </c>
       <c r="I12" s="11">
-        <f>I10+H10</f>
-        <v>1.623677248677249E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.0138888888888888E-3</v>
       </c>
       <c r="J12" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="27" customHeight="1">
-      <c r="A13" s="16">
-        <v>37</v>
-      </c>
+    <row r="13" spans="1:12" ht="32" customHeight="1">
+      <c r="A13" s="16"/>
       <c r="B13" s="17"/>
-      <c r="C13" s="17" t="s">
-        <v>21</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="9">
-        <f>($G13/$J13)*60/86400</f>
+        <f t="shared" ref="H13:H15" si="5">F13+($G13/$J13)*60/86400</f>
         <v>0</v>
       </c>
       <c r="I13" s="11">
         <f>I12+H12</f>
-        <v>1.623677248677249E-3</v>
+        <v>1.5674603174603173E-3</v>
       </c>
       <c r="J13" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="177" customHeight="1">
-      <c r="A14" s="16">
-        <v>38</v>
-      </c>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" s="16"/>
       <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="17"/>
+      <c r="C14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="H14" s="9">
-        <f>($G14/$J14)*60/86400</f>
-        <v>5.5357142857142855E-4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
-        <f>I13+H13</f>
-        <v>1.623677248677249E-3</v>
+        <f t="shared" ref="I14:I15" si="6">I13+H13</f>
+        <v>1.5674603174603173E-3</v>
       </c>
       <c r="J14" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="32" customHeight="1">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:12">
+      <c r="A15" s="16">
+        <v>31</v>
+      </c>
       <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="23">
-        <v>4.6296296296296293E-4</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" ref="H4:H17" si="1">F15+($G15/$J15)*60/86400</f>
-        <v>4.6296296296296293E-4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
-        <f>I14+H14</f>
-        <v>2.1772486772486774E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.5674603174603173E-3</v>
       </c>
       <c r="J15" s="18">
-        <f>$J$3</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="30">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="11">
-        <f t="shared" ref="I16:I17" si="2">I15+H15</f>
-        <v>2.6402116402116402E-3</v>
-      </c>
-      <c r="J16" s="18">
-        <f>$J$3</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="16">
-        <v>31</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="23">
-        <v>4.6296296296296293E-4</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="9">
-        <f t="shared" si="1"/>
-        <v>4.6296296296296293E-4</v>
-      </c>
-      <c r="I17" s="11">
-        <f t="shared" si="2"/>
-        <v>2.6402116402116402E-3</v>
-      </c>
-      <c r="J17" s="18">
-        <f>$J$3</f>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
     </row>
